--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.292413</v>
+        <v>15.32737633333333</v>
       </c>
       <c r="H2">
-        <v>42.877239</v>
+        <v>45.982129</v>
       </c>
       <c r="I2">
-        <v>0.3214711970063286</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="J2">
-        <v>0.3214711970063287</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.292413</v>
+        <v>15.32737633333333</v>
       </c>
       <c r="N2">
-        <v>42.877239</v>
+        <v>45.982129</v>
       </c>
       <c r="O2">
-        <v>0.3214711970063286</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="P2">
-        <v>0.3214711970063287</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="Q2">
-        <v>204.273069362569</v>
+        <v>234.9284652636268</v>
       </c>
       <c r="R2">
-        <v>1838.457624263121</v>
+        <v>2114.356187372641</v>
       </c>
       <c r="S2">
-        <v>0.1033437305046818</v>
+        <v>0.1135064832268322</v>
       </c>
       <c r="T2">
-        <v>0.1033437305046818</v>
+        <v>0.1135064832268322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.292413</v>
+        <v>15.32737633333333</v>
       </c>
       <c r="H3">
-        <v>42.877239</v>
+        <v>45.982129</v>
       </c>
       <c r="I3">
-        <v>0.3214711970063286</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="J3">
-        <v>0.3214711970063287</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,25 +614,25 @@
         <v>2.655853</v>
       </c>
       <c r="N3">
-        <v>7.967559</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="O3">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="P3">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="Q3">
-        <v>37.95854794328901</v>
+        <v>40.70725841701233</v>
       </c>
       <c r="R3">
-        <v>341.626931489601</v>
+        <v>366.3653257531111</v>
       </c>
       <c r="S3">
-        <v>0.01920359820920726</v>
+        <v>0.01966784969857085</v>
       </c>
       <c r="T3">
-        <v>0.01920359820920726</v>
+        <v>0.01966784969857085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.292413</v>
+        <v>15.32737633333333</v>
       </c>
       <c r="H4">
-        <v>42.877239</v>
+        <v>45.982129</v>
       </c>
       <c r="I4">
-        <v>0.3214711970063286</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="J4">
-        <v>0.3214711970063287</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>82.53336899999999</v>
       </c>
       <c r="O4">
-        <v>0.6187921970767524</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="P4">
-        <v>0.6187921970767525</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="Q4">
-        <v>393.200332009799</v>
+        <v>421.6733355736223</v>
       </c>
       <c r="R4">
-        <v>3538.802988088191</v>
+        <v>3795.060020162601</v>
       </c>
       <c r="S4">
-        <v>0.1989238682924396</v>
+        <v>0.2037328994499679</v>
       </c>
       <c r="T4">
-        <v>0.1989238682924397</v>
+        <v>0.2037328994499679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,13 +720,13 @@
         <v>2.655853</v>
       </c>
       <c r="H5">
-        <v>7.967559</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="I5">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="J5">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.292413</v>
+        <v>15.32737633333333</v>
       </c>
       <c r="N5">
-        <v>42.877239</v>
+        <v>45.982129</v>
       </c>
       <c r="O5">
-        <v>0.3214711970063286</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="P5">
-        <v>0.3214711970063287</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="Q5">
-        <v>37.95854794328901</v>
+        <v>40.70725841701233</v>
       </c>
       <c r="R5">
-        <v>341.626931489601</v>
+        <v>366.3653257531111</v>
       </c>
       <c r="S5">
-        <v>0.01920359820920726</v>
+        <v>0.01966784969857085</v>
       </c>
       <c r="T5">
-        <v>0.01920359820920726</v>
+        <v>0.01966784969857085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,13 +782,13 @@
         <v>2.655853</v>
       </c>
       <c r="H6">
-        <v>7.967559</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="I6">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="J6">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,25 +800,25 @@
         <v>2.655853</v>
       </c>
       <c r="N6">
-        <v>7.967559</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="O6">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="P6">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="Q6">
         <v>7.053555157609</v>
       </c>
       <c r="R6">
-        <v>63.481996418481</v>
+        <v>63.48199641848101</v>
       </c>
       <c r="S6">
-        <v>0.003568462086473273</v>
+        <v>0.003407949050738722</v>
       </c>
       <c r="T6">
-        <v>0.003568462086473273</v>
+        <v>0.003407949050738722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,13 +844,13 @@
         <v>2.655853</v>
       </c>
       <c r="H7">
-        <v>7.967559</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="I7">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="J7">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,22 +865,22 @@
         <v>82.53336899999999</v>
       </c>
       <c r="O7">
-        <v>0.6187921970767524</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="P7">
-        <v>0.6187921970767525</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="Q7">
         <v>73.065498552919</v>
       </c>
       <c r="R7">
-        <v>657.5894869762709</v>
+        <v>657.589486976271</v>
       </c>
       <c r="S7">
-        <v>0.03696454562123838</v>
+        <v>0.03530184295313266</v>
       </c>
       <c r="T7">
-        <v>0.03696454562123839</v>
+        <v>0.03530184295313266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,10 +909,10 @@
         <v>82.53336899999999</v>
       </c>
       <c r="I8">
-        <v>0.6187921970767524</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="J8">
-        <v>0.6187921970767525</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.292413</v>
+        <v>15.32737633333333</v>
       </c>
       <c r="N8">
-        <v>42.877239</v>
+        <v>45.982129</v>
       </c>
       <c r="O8">
-        <v>0.3214711970063286</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="P8">
-        <v>0.3214711970063287</v>
+        <v>0.336907232375371</v>
       </c>
       <c r="Q8">
-        <v>393.200332009799</v>
+        <v>421.6733355736223</v>
       </c>
       <c r="R8">
-        <v>3538.802988088191</v>
+        <v>3795.060020162601</v>
       </c>
       <c r="S8">
-        <v>0.1989238682924396</v>
+        <v>0.2037328994499679</v>
       </c>
       <c r="T8">
-        <v>0.1989238682924397</v>
+        <v>0.2037328994499679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>82.53336899999999</v>
       </c>
       <c r="I9">
-        <v>0.6187921970767524</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="J9">
-        <v>0.6187921970767525</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,25 +986,25 @@
         <v>2.655853</v>
       </c>
       <c r="N9">
-        <v>7.967559</v>
+        <v>7.967559000000001</v>
       </c>
       <c r="O9">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="P9">
-        <v>0.05973660591691892</v>
+        <v>0.05837764170244223</v>
       </c>
       <c r="Q9">
         <v>73.065498552919</v>
       </c>
       <c r="R9">
-        <v>657.5894869762709</v>
+        <v>657.589486976271</v>
       </c>
       <c r="S9">
-        <v>0.03696454562123838</v>
+        <v>0.03530184295313266</v>
       </c>
       <c r="T9">
-        <v>0.03696454562123839</v>
+        <v>0.03530184295313266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>82.53336899999999</v>
       </c>
       <c r="I10">
-        <v>0.6187921970767524</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="J10">
-        <v>0.6187921970767525</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>82.53336899999999</v>
       </c>
       <c r="O10">
-        <v>0.6187921970767524</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="P10">
-        <v>0.6187921970767525</v>
+        <v>0.6047151259221868</v>
       </c>
       <c r="Q10">
         <v>756.8618887211288</v>
@@ -1063,10 +1063,10 @@
         <v>6811.75699849016</v>
       </c>
       <c r="S10">
-        <v>0.3829037831630743</v>
+        <v>0.3656803835190862</v>
       </c>
       <c r="T10">
-        <v>0.3829037831630745</v>
+        <v>0.3656803835190862</v>
       </c>
     </row>
   </sheetData>
